--- a/SPPSApi/Doc/Template/FS0309.xlsx
+++ b/SPPSApi/Doc/Template/FS0309.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>变更事项</t>
   </si>
@@ -30,9 +30,6 @@
     <t>使用结束</t>
   </si>
   <si>
-    <t>工程/供应商信息</t>
-  </si>
-  <si>
     <t>号旧</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
   </si>
   <si>
     <t>旧型持续开始</t>
-  </si>
-  <si>
-    <t>价格处理栏</t>
   </si>
   <si>
     <t>车型
@@ -165,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -188,22 +182,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,17 +511,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
     <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
@@ -542,167 +547,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="J1:J2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SPPSApi/Doc/Template/FS0309.xlsx
+++ b/SPPSApi/Doc/Template/FS0309.xlsx
@@ -514,7 +514,7 @@
   <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/SPPSApi/Doc/Template/FS0309.xlsx
+++ b/SPPSApi/Doc/Template/FS0309.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>变更事项</t>
   </si>
@@ -30,6 +30,9 @@
     <t>使用结束</t>
   </si>
   <si>
+    <t>工程/供应商信息</t>
+  </si>
+  <si>
     <t>号旧</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
   </si>
   <si>
     <t>旧型持续开始</t>
+  </si>
+  <si>
+    <t>价格处理栏</t>
   </si>
   <si>
     <t>车型
@@ -159,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,24 +188,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -207,8 +200,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,18 +507,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
@@ -559,95 +554,155 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="U2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SPPSApi/Doc/Template/FS0309.xlsx
+++ b/SPPSApi/Doc/Template/FS0309.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>变更事项</t>
   </si>
@@ -30,9 +30,6 @@
     <t>使用结束</t>
   </si>
   <si>
-    <t>工程/供应商信息</t>
-  </si>
-  <si>
     <t>号旧</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
   </si>
   <si>
     <t>旧型持续开始</t>
-  </si>
-  <si>
-    <t>价格处理栏</t>
   </si>
   <si>
     <t>车型
@@ -165,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -188,11 +182,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -200,11 +207,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,17 +511,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
     <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
@@ -554,155 +559,95 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SPPSApi/Doc/Template/FS0309.xlsx
+++ b/SPPSApi/Doc/Template/FS0309.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2E6232-58C7-46D0-A99F-F2AC0EC2319C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>变更事项</t>
   </si>
@@ -107,9 +108,6 @@
     <t>原价</t>
   </si>
   <si>
-    <t>原价*系数</t>
-  </si>
-  <si>
     <t>TNP含税</t>
   </si>
   <si>
@@ -117,12 +115,20 @@
   </si>
   <si>
     <t>价格结束</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,16 +205,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -219,6 +231,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -267,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,9 +315,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,6 +367,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,137 +559,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" customWidth="1"/>
+    <col min="21" max="21" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -652,7 +706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -665,7 +719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SPPSApi/Doc/Template/FS0309.xlsx
+++ b/SPPSApi/Doc/Template/FS0309.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2E6232-58C7-46D0-A99F-F2AC0EC2319C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -188,31 +187,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -220,6 +200,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -282,7 +265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,26 +298,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,23 +333,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,11 +508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -597,104 +546,104 @@
     <col min="33" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -706,7 +655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -719,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SPPSApi/Doc/Template/FS0309.xlsx
+++ b/SPPSApi/Doc/Template/FS0309.xlsx
@@ -101,9 +101,6 @@
     <t>进度日期</t>
   </si>
   <si>
-    <t>公式选择</t>
-  </si>
-  <si>
     <t>原价</t>
   </si>
   <si>
@@ -121,6 +118,10 @@
   </si>
   <si>
     <t>参考值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +513,7 @@
   <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -548,7 +549,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -599,22 +600,22 @@
         <v>25</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>8</v>
